--- a/Практическая работа 11.xlsx
+++ b/Практическая работа 11.xlsx
@@ -240,9 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,12 +576,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
@@ -606,10 +606,10 @@
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>35850</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f>(E1-C3)/365</f>
         <v>-98.219178082191775</v>
       </c>
@@ -621,10 +621,10 @@
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>35694</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>(E1-C4)/365</f>
         <v>-97.791780821917811</v>
       </c>
@@ -636,10 +636,10 @@
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>36030</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>(E1-C5)/365</f>
         <v>-98.712328767123282</v>
       </c>
@@ -651,10 +651,10 @@
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>35259</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>(E1-C6)/365</f>
         <v>-96.6</v>
       </c>
@@ -666,10 +666,10 @@
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>34228</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f>(E1-C7)/365</f>
         <v>-93.775342465753425</v>
       </c>
@@ -681,10 +681,10 @@
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>35908</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f>(E1-C8)/365</f>
         <v>-98.37808219178082</v>
       </c>
@@ -696,10 +696,10 @@
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>35140</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f>(E1-C9)/365</f>
         <v>-96.273972602739732</v>
       </c>
@@ -711,10 +711,10 @@
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>35228</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f>(E1-C10)/365</f>
         <v>-96.515068493150679</v>
       </c>
@@ -726,10 +726,10 @@
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>33284</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f>(E1-C11)/365</f>
         <v>-91.189041095890417</v>
       </c>
@@ -742,10 +742,10 @@
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>34823</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>(E1-C12)/365</f>
         <v>-95.405479452054792</v>
       </c>
@@ -757,10 +757,10 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>36141</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f>(E1-C13)/365</f>
         <v>-99.016438356164386</v>
       </c>
@@ -772,10 +772,10 @@
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>35480</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f>(E1-C14)/365</f>
         <v>-97.205479452054789</v>
       </c>
@@ -787,10 +787,10 @@
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>35777</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f>(E1-C15)/365</f>
         <v>-98.019178082191786</v>
       </c>
@@ -802,10 +802,10 @@
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>35388</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f>(E1-C16)/365</f>
         <v>-96.953424657534242</v>
       </c>
@@ -817,10 +817,10 @@
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>35384</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f>(E1-C17)/365</f>
         <v>-96.942465753424656</v>
       </c>
@@ -832,10 +832,10 @@
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>34986</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>(E1-C18)/365</f>
         <v>-95.852054794520555</v>
       </c>
@@ -847,10 +847,10 @@
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>34132</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f>(E1-C19)/365</f>
         <v>-93.512328767123293</v>
       </c>
@@ -862,10 +862,10 @@
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>35353</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f>(E1-C20)/365</f>
         <v>-96.857534246575341</v>
       </c>
@@ -877,10 +877,10 @@
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>35778</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f>(E1-C21)/365</f>
         <v>-98.021917808219172</v>
       </c>
@@ -918,19 +918,19 @@
       <c r="C24" s="3">
         <v>150</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f>C24/2.54</f>
         <v>59.055118110236222</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f>C24/71.12</f>
         <v>2.1091113610798651</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>C24/4.45</f>
         <v>33.707865168539321</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f>C24/30.48</f>
         <v>4.9212598425196852</v>
       </c>
@@ -945,19 +945,19 @@
       <c r="C25" s="3">
         <v>180</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <f t="shared" ref="D25:D27" si="0">C25/2.54</f>
         <v>70.866141732283467</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <f t="shared" ref="E25:E27" si="1">C25/71.12</f>
         <v>2.5309336332958376</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f t="shared" ref="F25:F27" si="2">C25/4.45</f>
         <v>40.449438202247187</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <f t="shared" ref="G25:G27" si="3">C25/30.48</f>
         <v>5.9055118110236222</v>
       </c>
@@ -972,19 +972,19 @@
       <c r="C26" s="3">
         <v>160</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <f t="shared" si="0"/>
         <v>62.99212598425197</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f t="shared" si="1"/>
         <v>2.2497187851518561</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>35.955056179775276</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <f t="shared" si="3"/>
         <v>5.2493438320209975</v>
       </c>
@@ -999,19 +999,19 @@
       <c r="C27" s="3">
         <v>170</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>66.929133858267718</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f t="shared" si="1"/>
         <v>2.3903262092238471</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f t="shared" si="2"/>
         <v>38.202247191011232</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <f t="shared" si="3"/>
         <v>5.5774278215223099</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="3">
@@ -1045,7 +1045,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="3">
